--- a/UML SR EXAM/UseCaseDesc.xlsx
+++ b/UML SR EXAM/UseCaseDesc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason Lee\Documents\E-Book From Binus\TS\TPA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87594982-34F7-46B7-8B9A-0CCDC651C838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881C88EC-BC45-42B1-8E8D-4F9F023154D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9D6EDBCB-6F14-4410-AF33-F420771ABC8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9D6EDBCB-6F14-4410-AF33-F420771ABC8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Change Password" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
   <si>
     <t>Use case name</t>
   </si>
@@ -337,6 +337,12 @@
   <si>
     <t>6.1 If the supporting images not images file, display file extension must be images file message
 6.2 If description field not be filled, display description field must be filled message</t>
+  </si>
+  <si>
+    <t>Related Use Case</t>
+  </si>
+  <si>
+    <t>Need to View Students Details to Mark Cheating</t>
   </si>
 </sst>
 </file>
@@ -360,7 +366,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -503,11 +509,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -551,9 +635,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -580,6 +661,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5D1158-75A2-418F-B67D-505B6893E606}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -912,115 +1029,125 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="33"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="C9" s="25"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="161.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3" ht="161.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29"/>
+      <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="105.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:3" ht="105.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C12" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A9:A10"/>
+  <mergeCells count="11">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1028,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14351093-8A7B-41B7-8BC6-00990F05C113}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1045,114 +1172,124 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="21"/>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="35"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
+      <c r="B11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
+    <row r="12" spans="1:3" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C12" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B7:C7"/>
+  <mergeCells count="11">
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1161,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE84B76-451B-4286-A039-4894F6B49C66}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1178,114 +1315,124 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="35"/>
+    </row>
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:3" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="217" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3" ht="217" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
+      <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
+    <row r="12" spans="1:3" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C12" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B7:C7"/>
+  <mergeCells count="11">
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1294,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD5C6A5-44F1-466B-BFE6-A6BBD4517861}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1311,114 +1458,124 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="35"/>
+    </row>
+    <row r="7" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="371" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3" ht="371" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
+    <row r="12" spans="1:3" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C12" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B7:C7"/>
+  <mergeCells count="11">
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1427,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AB8A28-053E-43ED-BE8A-3E517A7EDD34}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1444,114 +1601,124 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="35"/>
+    </row>
+    <row r="7" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
+      <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
+    <row r="12" spans="1:3" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C12" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B7:C7"/>
+  <mergeCells count="11">
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1560,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E9D436-A54C-4B16-A572-D53D225AAA74}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1577,114 +1744,124 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="35"/>
+    </row>
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:3" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="217" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3" ht="217" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
+      <c r="B11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
+    <row r="12" spans="1:3" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C12" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B7:C7"/>
+  <mergeCells count="11">
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
